--- a/RawData/EU_IGU_RawData_VPython.xlsx
+++ b/RawData/EU_IGU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041689F4-3467-48C7-8991-B88B6E9DCB24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748CFE4-7131-4F03-B5F1-474CBB1EC6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="21" r:id="rId1"/>
@@ -336,7 +336,24 @@
         </r>
       </text>
     </comment>
-    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{34D5082D-C2A7-413F-B115-30E5567FDD7B}">
+    <comment ref="C64" authorId="0" shapeId="0" xr:uid="{C391AF23-0746-4242-B264-923C7CB8AA49}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Hestin et al., 2016)
+2% = triple glazing
+98% = double glazing
+80% = Residential
+20% = Non-residential</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C78" authorId="0" shapeId="0" xr:uid="{59056846-CA8B-4F33-8C1C-E9B9712AA80C}">
       <text>
         <r>
           <rPr>
@@ -7444,10 +7461,10 @@
   <dimension ref="A1:AX94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="C58" sqref="C58:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7983,7 +8000,6 @@
         <v>2000</v>
       </c>
       <c r="C58" s="7">
-        <f>2*5</f>
         <v>10</v>
       </c>
     </row>
@@ -8039,7 +8055,9 @@
       <c r="B64" s="10">
         <v>2005</v>
       </c>
-      <c r="C64" s="7"/>
+      <c r="C64" s="7">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -8147,6 +8165,7 @@
       <c r="B76" s="10">
         <v>2017</v>
       </c>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -8155,7 +8174,7 @@
       <c r="B77" s="10">
         <v>2018</v>
       </c>
-      <c r="C77" s="8"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -8165,8 +8184,7 @@
         <v>2019</v>
       </c>
       <c r="C78" s="7">
-        <f>2*5</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">

--- a/RawData/EU_IGU_RawData_VPython.xlsx
+++ b/RawData/EU_IGU_RawData_VPython.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souvi\Documents\These\80_Calculations\02_MFA_IGU\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748CFE4-7131-4F03-B5F1-474CBB1EC6FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CD6FE8-B773-4BC5-A5DA-AEDA19F36C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="600" windowWidth="16665" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
+    <workbookView xWindow="2340" yWindow="600" windowWidth="16665" windowHeight="15600" firstSheet="1" activeTab="5" xr2:uid="{123E2ECC-8474-4F38-AC8E-530CCC4039F8}"/>
   </bookViews>
   <sheets>
     <sheet name="References" sheetId="21" r:id="rId1"/>
@@ -283,20 +283,6 @@
     <author>jean</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{0629DF71-747F-475F-9B2B-9C46E5D022EC}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Unless otherwise indicated in a note attached to the cell, all data collected in this column comes from:
-Production industrielle: industrie du verre, Service des études et des statistiques industrielles, 1989-2004</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="C4" authorId="0" shapeId="0" xr:uid="{BE8C0B31-F1B8-45DD-82F7-FF8CE257A0AF}">
       <text>
         <r>
@@ -306,11 +292,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average between the French and Belgian average thicknesses, 5mm and 3mm respectively.</t>
+          <t>(Piganiol, 1965)</t>
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{4DB5B4C3-4E76-4713-88D6-9CAA8571CEF0}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{1D914C9C-E18C-4702-A53F-71657CF04ADC}">
       <text>
         <r>
           <rPr>
@@ -319,11 +305,11 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Average between the French and Belgian average thicknesses, 5mm and 3mm respectively.</t>
+          <t>(Van de Voorde, 2016)</t>
         </r>
       </text>
     </comment>
-    <comment ref="C58" authorId="0" shapeId="0" xr:uid="{7A0127C0-D66A-44B3-91B7-FBC02283AD51}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{78E40F23-2E6C-4EB7-9F80-E8EA8FCD4437}">
       <text>
         <r>
           <rPr>
@@ -332,7 +318,46 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{C64677CB-8AF4-4487-9A74-BFE24643DD27}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Piganiol, 1965)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{3510F62C-2FD3-4D42-8658-FE0517712D3F}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Van de Voorde, 2016)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{37FDA818-3271-498B-81A3-79883D312E51}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Compagnie de Saint-Gobain, 1953)</t>
         </r>
       </text>
     </comment>
@@ -353,6 +378,32 @@
         </r>
       </text>
     </comment>
+    <comment ref="D64" authorId="0" shapeId="0" xr:uid="{C3083A52-0B55-4EFF-99E7-20DDEF323682}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E64" authorId="0" shapeId="0" xr:uid="{788C3A1B-A9A4-4DC5-A55F-12F320169F02}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C78" authorId="0" shapeId="0" xr:uid="{59056846-CA8B-4F33-8C1C-E9B9712AA80C}">
       <text>
         <r>
@@ -362,7 +413,33 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>(Private discussion with glass industries. According to them, since 2000, average thickness is around 6mm per glass sheet)</t>
+          <t>(Interview with European glass industries. According to them, since 2000, the average thickness is around 5-6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D78" authorId="0" shapeId="0" xr:uid="{1138B376-1088-4356-8AB7-8D00578BF77C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Interview with European glass industries. According to them, since 2000, average thickness is around 4-6mm per glass sheet)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E78" authorId="0" shapeId="0" xr:uid="{21E1B333-2B97-4103-84D7-C462D8C033E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(Interview with European glass industries. According to them, since 2000, average thickness is around 4-6mm per glass sheet)</t>
         </r>
       </text>
     </comment>
@@ -1133,7 +1210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
   <si>
     <t>year</t>
   </si>
@@ -1304,6 +1381,12 @@
   </si>
   <si>
     <t>average thickness, mm</t>
+  </si>
+  <si>
+    <t>min. thickness, mm</t>
+  </si>
+  <si>
+    <t>max. thickness, mm</t>
   </si>
 </sst>
 </file>
@@ -7461,21 +7544,22 @@
   <dimension ref="A1:AX94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C58" sqref="C58:C78"/>
+      <selection pane="bottomRight" activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" style="40" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="6"/>
+    <col min="3" max="3" width="22.28515625" style="40" customWidth="1"/>
+    <col min="4" max="5" width="22.28515625" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -7485,8 +7569,14 @@
       <c r="C1" s="5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -7495,7 +7585,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -7503,7 +7593,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -7514,8 +7604,16 @@
         <f>2*4</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="8">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <f>2*5.5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -7523,8 +7621,10 @@
         <v>1948</v>
       </c>
       <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -7532,16 +7632,20 @@
         <v>1949</v>
       </c>
       <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="10">
         <v>1950</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -7549,8 +7653,10 @@
         <v>1951</v>
       </c>
       <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -7558,16 +7664,20 @@
         <v>1952</v>
       </c>
       <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="10">
         <v>1953</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -7575,8 +7685,10 @@
         <v>1954</v>
       </c>
       <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>6</v>
       </c>
@@ -7587,8 +7699,16 @@
         <f>2*4</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="8">
+        <f>2*3</f>
+        <v>6</v>
+      </c>
+      <c r="E12" s="8">
+        <f>2*5.5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -7596,8 +7716,10 @@
         <v>1956</v>
       </c>
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -7605,8 +7727,10 @@
         <v>1957</v>
       </c>
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -7614,8 +7738,10 @@
         <v>1958</v>
       </c>
       <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>6</v>
       </c>
@@ -7623,8 +7749,10 @@
         <v>1959</v>
       </c>
       <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -7632,8 +7760,10 @@
         <v>1960</v>
       </c>
       <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -7641,8 +7771,10 @@
         <v>1961</v>
       </c>
       <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -7650,8 +7782,10 @@
         <v>1962</v>
       </c>
       <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -7659,8 +7793,10 @@
         <v>1963</v>
       </c>
       <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -7668,8 +7804,10 @@
         <v>1964</v>
       </c>
       <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -7677,8 +7815,10 @@
         <v>1965</v>
       </c>
       <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -7686,8 +7826,10 @@
         <v>1966</v>
       </c>
       <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -7695,8 +7837,10 @@
         <v>1967</v>
       </c>
       <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -7704,8 +7848,10 @@
         <v>1968</v>
       </c>
       <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -7713,8 +7859,10 @@
         <v>1969</v>
       </c>
       <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>6</v>
       </c>
@@ -7722,8 +7870,10 @@
         <v>1970</v>
       </c>
       <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -7731,8 +7881,10 @@
         <v>1971</v>
       </c>
       <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>9</v>
       </c>
@@ -7740,8 +7892,10 @@
         <v>1972</v>
       </c>
       <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>9</v>
       </c>
@@ -7749,8 +7903,10 @@
         <v>1973</v>
       </c>
       <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>9</v>
       </c>
@@ -7758,8 +7914,10 @@
         <v>1974</v>
       </c>
       <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>9</v>
       </c>
@@ -7767,8 +7925,10 @@
         <v>1975</v>
       </c>
       <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>9</v>
       </c>
@@ -7776,8 +7936,10 @@
         <v>1976</v>
       </c>
       <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>9</v>
       </c>
@@ -7785,8 +7947,10 @@
         <v>1977</v>
       </c>
       <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>9</v>
       </c>
@@ -7794,8 +7958,10 @@
         <v>1978</v>
       </c>
       <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>9</v>
       </c>
@@ -7803,8 +7969,10 @@
         <v>1979</v>
       </c>
       <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>10</v>
       </c>
@@ -7812,8 +7980,10 @@
         <v>1980</v>
       </c>
       <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>10</v>
       </c>
@@ -7821,8 +7991,10 @@
         <v>1981</v>
       </c>
       <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>10</v>
       </c>
@@ -7830,8 +8002,10 @@
         <v>1982</v>
       </c>
       <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>10</v>
       </c>
@@ -7839,8 +8013,10 @@
         <v>1983</v>
       </c>
       <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>10</v>
       </c>
@@ -7848,8 +8024,10 @@
         <v>1984</v>
       </c>
       <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>10</v>
       </c>
@@ -7857,8 +8035,10 @@
         <v>1985</v>
       </c>
       <c r="C42" s="8"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>12</v>
       </c>
@@ -7866,8 +8046,10 @@
         <v>1986</v>
       </c>
       <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>12</v>
       </c>
@@ -7875,8 +8057,10 @@
         <v>1987</v>
       </c>
       <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>12</v>
       </c>
@@ -7884,8 +8068,10 @@
         <v>1988</v>
       </c>
       <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>12</v>
       </c>
@@ -7893,8 +8079,10 @@
         <v>1989</v>
       </c>
       <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -7902,8 +8090,10 @@
         <v>1990</v>
       </c>
       <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>12</v>
       </c>
@@ -7911,8 +8101,10 @@
         <v>1991</v>
       </c>
       <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>12</v>
       </c>
@@ -7920,8 +8112,10 @@
         <v>1992</v>
       </c>
       <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>12</v>
       </c>
@@ -7929,8 +8123,10 @@
         <v>1993</v>
       </c>
       <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>12</v>
       </c>
@@ -7938,8 +8134,10 @@
         <v>1994</v>
       </c>
       <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>12</v>
       </c>
@@ -7947,8 +8145,10 @@
         <v>1995</v>
       </c>
       <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>15</v>
       </c>
@@ -7956,8 +8156,10 @@
         <v>1995</v>
       </c>
       <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>15</v>
       </c>
@@ -7965,8 +8167,10 @@
         <v>1996</v>
       </c>
       <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>15</v>
       </c>
@@ -7974,8 +8178,10 @@
         <v>1997</v>
       </c>
       <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>15</v>
       </c>
@@ -7983,27 +8189,29 @@
         <v>1998</v>
       </c>
       <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>15</v>
       </c>
       <c r="B57" s="10">
         <v>1999</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>15</v>
       </c>
       <c r="B58" s="10">
         <v>2000</v>
       </c>
-      <c r="C58" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>15</v>
       </c>
@@ -8011,8 +8219,10 @@
         <v>2001</v>
       </c>
       <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -8020,8 +8230,10 @@
         <v>2002</v>
       </c>
       <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>15</v>
       </c>
@@ -8029,8 +8241,10 @@
         <v>2003</v>
       </c>
       <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>27</v>
       </c>
@@ -8038,8 +8252,10 @@
         <v>2003</v>
       </c>
       <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>27</v>
       </c>
@@ -8047,8 +8263,10 @@
         <v>2004</v>
       </c>
       <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>27</v>
       </c>
@@ -8057,6 +8275,14 @@
       </c>
       <c r="C64" s="7">
         <v>10</v>
+      </c>
+      <c r="D64" s="7">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="E64" s="7">
+        <f>2*6</f>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.25">
@@ -8067,6 +8293,8 @@
         <v>2006</v>
       </c>
       <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -8076,6 +8304,8 @@
         <v>2007</v>
       </c>
       <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -8085,6 +8315,8 @@
         <v>2008</v>
       </c>
       <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -8094,6 +8326,8 @@
         <v>2009</v>
       </c>
       <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -8103,6 +8337,8 @@
         <v>2010</v>
       </c>
       <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -8112,6 +8348,8 @@
         <v>2011</v>
       </c>
       <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -8121,6 +8359,8 @@
         <v>2012</v>
       </c>
       <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -8130,6 +8370,8 @@
         <v>2013</v>
       </c>
       <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -8139,6 +8381,8 @@
         <v>2014</v>
       </c>
       <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -8148,6 +8392,8 @@
         <v>2015</v>
       </c>
       <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -8157,6 +8403,8 @@
         <v>2016</v>
       </c>
       <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -8166,6 +8414,8 @@
         <v>2017</v>
       </c>
       <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -8175,6 +8425,8 @@
         <v>2018</v>
       </c>
       <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -8184,7 +8436,16 @@
         <v>2019</v>
       </c>
       <c r="C78" s="7">
+        <f>2*5.5</f>
         <v>11</v>
+      </c>
+      <c r="D78" s="7">
+        <f>2*5</f>
+        <v>10</v>
+      </c>
+      <c r="E78" s="7">
+        <f>2*6</f>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:50" s="4" customFormat="1" x14ac:dyDescent="0.25">
